--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/5 CONSTRUCCIONES EN PROCESO/6 CEDULA REVISION GUATECOMPRAS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/5 CONSTRUCCIONES EN PROCESO/6 CEDULA REVISION GUATECOMPRAS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\5 CONSTRUCCIONES EN PROCESO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\5 CONSTRUCCIONES EN PROCESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD782A6-6F8C-4513-8146-AFC0B4396F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -56,15 +57,6 @@
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">Empresa, XYZ, S. A. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                           Del 01 de Enero al 31 de Diciembre de 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                     Cédula Revisión Guatecompras</t>
-  </si>
-  <si>
     <t xml:space="preserve">                    ATRITUTOS </t>
   </si>
   <si>
@@ -122,12 +114,21 @@
   <si>
     <t>E-5</t>
   </si>
+  <si>
+    <t>Cédula Revisión Guatecompras</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,12 +168,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -404,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -434,19 +429,6 @@
     <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,40 +438,43 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +510,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -601,7 +592,7 @@
         <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02AD85C-2D12-48C8-A1C7-DFD27AA512FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -656,7 +647,7 @@
         <xdr:cNvPr id="4" name="Conector recto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D784A819-57DA-4AB7-B47F-C8DDA9871868}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -711,7 +702,7 @@
         <xdr:cNvPr id="5" name="Elipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33CCC011-B0C1-444B-BD63-2BDF7368DD23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,11 +1017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,8 +1039,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="N2" s="34" t="s">
-        <v>28</v>
+      <c r="N2" s="29" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
@@ -1062,527 +1053,525 @@
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="13"/>
+      <c r="C5" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="M5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="14" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="M6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="M7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="J8" s="11"/>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
+      <c r="F10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="15">
         <v>1</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="17">
         <v>2</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="17">
         <v>3</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="17">
         <v>4</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="17">
         <v>5</v>
       </c>
-      <c r="L11" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="32"/>
+      <c r="L11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="18"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="18"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="18"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="18"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="18"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="18"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="18"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="18"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="18"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="18"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="18"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="18"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="28" t="s">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="28"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="23"/>
+      <c r="C46" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="33"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="28"/>
-      <c r="C46" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B32:K34"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
